--- a/utils/yahoofinance/TLT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/TLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>101.459999</v>
       </c>
       <c r="F2" t="n">
-        <v>99.01918000000001</v>
+        <v>99.019188</v>
       </c>
       <c r="G2" t="n">
         <v>25313200</v>
@@ -514,7 +514,7 @@
         <v>102.849998</v>
       </c>
       <c r="F3" t="n">
-        <v>100.375755</v>
+        <v>100.375748</v>
       </c>
       <c r="G3" t="n">
         <v>21678200</v>
@@ -539,7 +539,7 @@
         <v>103.279999</v>
       </c>
       <c r="F4" t="n">
-        <v>100.79541</v>
+        <v>100.795403</v>
       </c>
       <c r="G4" t="n">
         <v>14771100</v>
@@ -564,7 +564,7 @@
         <v>105.18</v>
       </c>
       <c r="F5" t="n">
-        <v>102.649696</v>
+        <v>102.649704</v>
       </c>
       <c r="G5" t="n">
         <v>27473700</v>
@@ -614,7 +614,7 @@
         <v>103.989998</v>
       </c>
       <c r="F7" t="n">
-        <v>101.488335</v>
+        <v>101.488312</v>
       </c>
       <c r="G7" t="n">
         <v>20545200</v>
@@ -639,7 +639,7 @@
         <v>105.68</v>
       </c>
       <c r="F8" t="n">
-        <v>103.137657</v>
+        <v>103.137665</v>
       </c>
       <c r="G8" t="n">
         <v>18794000</v>
@@ -664,7 +664,7 @@
         <v>107.760002</v>
       </c>
       <c r="F9" t="n">
-        <v>105.167625</v>
+        <v>105.167633</v>
       </c>
       <c r="G9" t="n">
         <v>32029600</v>
@@ -689,7 +689,7 @@
         <v>106.75</v>
       </c>
       <c r="F10" t="n">
-        <v>104.181946</v>
+        <v>104.181915</v>
       </c>
       <c r="G10" t="n">
         <v>17750800</v>
@@ -739,7 +739,7 @@
         <v>108.629997</v>
       </c>
       <c r="F12" t="n">
-        <v>106.016701</v>
+        <v>106.016685</v>
       </c>
       <c r="G12" t="n">
         <v>35497200</v>
@@ -764,7 +764,7 @@
         <v>107.949997</v>
       </c>
       <c r="F13" t="n">
-        <v>105.353065</v>
+        <v>105.353058</v>
       </c>
       <c r="G13" t="n">
         <v>17194700</v>
@@ -789,7 +789,7 @@
         <v>106.199997</v>
       </c>
       <c r="F14" t="n">
-        <v>103.645149</v>
+        <v>103.645134</v>
       </c>
       <c r="G14" t="n">
         <v>22754100</v>
@@ -864,7 +864,7 @@
         <v>107.480003</v>
       </c>
       <c r="F17" t="n">
-        <v>104.894379</v>
+        <v>104.894356</v>
       </c>
       <c r="G17" t="n">
         <v>11906500</v>
@@ -889,7 +889,7 @@
         <v>106.980003</v>
       </c>
       <c r="F18" t="n">
-        <v>104.40638</v>
+        <v>104.406395</v>
       </c>
       <c r="G18" t="n">
         <v>15549400</v>
@@ -914,7 +914,7 @@
         <v>106.709999</v>
       </c>
       <c r="F19" t="n">
-        <v>104.142883</v>
+        <v>104.142899</v>
       </c>
       <c r="G19" t="n">
         <v>11845500</v>
@@ -964,7 +964,7 @@
         <v>107.169998</v>
       </c>
       <c r="F21" t="n">
-        <v>104.591812</v>
+        <v>104.59182</v>
       </c>
       <c r="G21" t="n">
         <v>13705300</v>
@@ -989,7 +989,7 @@
         <v>108.18</v>
       </c>
       <c r="F22" t="n">
-        <v>105.849129</v>
+        <v>105.849144</v>
       </c>
       <c r="G22" t="n">
         <v>25305800</v>
@@ -1014,7 +1014,7 @@
         <v>108.32</v>
       </c>
       <c r="F23" t="n">
-        <v>105.986115</v>
+        <v>105.986122</v>
       </c>
       <c r="G23" t="n">
         <v>19548400</v>
@@ -1064,7 +1064,7 @@
         <v>105.910004</v>
       </c>
       <c r="F25" t="n">
-        <v>103.628044</v>
+        <v>103.628052</v>
       </c>
       <c r="G25" t="n">
         <v>15182400</v>
@@ -1089,7 +1089,7 @@
         <v>105.059998</v>
       </c>
       <c r="F26" t="n">
-        <v>102.796356</v>
+        <v>102.796349</v>
       </c>
       <c r="G26" t="n">
         <v>18290300</v>
@@ -1114,7 +1114,7 @@
         <v>105.559998</v>
       </c>
       <c r="F27" t="n">
-        <v>103.285583</v>
+        <v>103.285591</v>
       </c>
       <c r="G27" t="n">
         <v>13530700</v>
@@ -1139,7 +1139,7 @@
         <v>104.559998</v>
       </c>
       <c r="F28" t="n">
-        <v>102.307121</v>
+        <v>102.307137</v>
       </c>
       <c r="G28" t="n">
         <v>20469900</v>
@@ -1164,7 +1164,7 @@
         <v>103.389999</v>
       </c>
       <c r="F29" t="n">
-        <v>101.162338</v>
+        <v>101.162354</v>
       </c>
       <c r="G29" t="n">
         <v>16598300</v>
@@ -1189,7 +1189,7 @@
         <v>104.260002</v>
       </c>
       <c r="F30" t="n">
-        <v>102.013596</v>
+        <v>102.013588</v>
       </c>
       <c r="G30" t="n">
         <v>13134300</v>
@@ -1214,7 +1214,7 @@
         <v>104.019997</v>
       </c>
       <c r="F31" t="n">
-        <v>101.778763</v>
+        <v>101.77877</v>
       </c>
       <c r="G31" t="n">
         <v>15440300</v>
@@ -1264,7 +1264,7 @@
         <v>101.589996</v>
       </c>
       <c r="F33" t="n">
-        <v>99.401115</v>
+        <v>99.40113100000001</v>
       </c>
       <c r="G33" t="n">
         <v>19267300</v>
@@ -1289,7 +1289,7 @@
         <v>102.379997</v>
       </c>
       <c r="F34" t="n">
-        <v>100.174095</v>
+        <v>100.174103</v>
       </c>
       <c r="G34" t="n">
         <v>19560900</v>
@@ -1314,7 +1314,7 @@
         <v>100.389999</v>
       </c>
       <c r="F35" t="n">
-        <v>98.226974</v>
+        <v>98.22698200000001</v>
       </c>
       <c r="G35" t="n">
         <v>22728000</v>
@@ -1339,7 +1339,7 @@
         <v>101.309998</v>
       </c>
       <c r="F36" t="n">
-        <v>99.127151</v>
+        <v>99.12715900000001</v>
       </c>
       <c r="G36" t="n">
         <v>15165400</v>
@@ -1364,7 +1364,7 @@
         <v>102.300003</v>
       </c>
       <c r="F37" t="n">
-        <v>100.095833</v>
+        <v>100.095825</v>
       </c>
       <c r="G37" t="n">
         <v>15829100</v>
@@ -1389,7 +1389,7 @@
         <v>100.970001</v>
       </c>
       <c r="F38" t="n">
-        <v>98.794495</v>
+        <v>98.794479</v>
       </c>
       <c r="G38" t="n">
         <v>21403600</v>
@@ -1414,7 +1414,7 @@
         <v>101.25</v>
       </c>
       <c r="F39" t="n">
-        <v>99.068451</v>
+        <v>99.068459</v>
       </c>
       <c r="G39" t="n">
         <v>14209200</v>
@@ -1489,7 +1489,7 @@
         <v>99.480003</v>
       </c>
       <c r="F42" t="n">
-        <v>97.576424</v>
+        <v>97.576431</v>
       </c>
       <c r="G42" t="n">
         <v>23763600</v>
@@ -1514,7 +1514,7 @@
         <v>101.889999</v>
       </c>
       <c r="F43" t="n">
-        <v>99.94032300000001</v>
+        <v>99.940308</v>
       </c>
       <c r="G43" t="n">
         <v>30877300</v>
@@ -1539,7 +1539,7 @@
         <v>101.099998</v>
       </c>
       <c r="F44" t="n">
-        <v>99.165436</v>
+        <v>99.16542800000001</v>
       </c>
       <c r="G44" t="n">
         <v>16631900</v>
@@ -1564,7 +1564,7 @@
         <v>101.720001</v>
       </c>
       <c r="F45" t="n">
-        <v>99.77357499999999</v>
+        <v>99.773567</v>
       </c>
       <c r="G45" t="n">
         <v>23096500</v>
@@ -1589,7 +1589,7 @@
         <v>101.82</v>
       </c>
       <c r="F46" t="n">
-        <v>99.871658</v>
+        <v>99.871651</v>
       </c>
       <c r="G46" t="n">
         <v>20252400</v>
@@ -1639,7 +1639,7 @@
         <v>105.589996</v>
       </c>
       <c r="F48" t="n">
-        <v>103.569496</v>
+        <v>103.569504</v>
       </c>
       <c r="G48" t="n">
         <v>43921500</v>
@@ -1664,7 +1664,7 @@
         <v>105.830002</v>
       </c>
       <c r="F49" t="n">
-        <v>103.804916</v>
+        <v>103.804924</v>
       </c>
       <c r="G49" t="n">
         <v>51502500</v>
@@ -1714,7 +1714,7 @@
         <v>106.099998</v>
       </c>
       <c r="F51" t="n">
-        <v>104.069748</v>
+        <v>104.069756</v>
       </c>
       <c r="G51" t="n">
         <v>45164100</v>
@@ -1739,7 +1739,7 @@
         <v>105.269997</v>
       </c>
       <c r="F52" t="n">
-        <v>103.255623</v>
+        <v>103.255638</v>
       </c>
       <c r="G52" t="n">
         <v>43089300</v>
@@ -1789,7 +1789,7 @@
         <v>105.910004</v>
       </c>
       <c r="F54" t="n">
-        <v>103.883385</v>
+        <v>103.8834</v>
       </c>
       <c r="G54" t="n">
         <v>24242800</v>
@@ -1814,7 +1814,7 @@
         <v>105</v>
       </c>
       <c r="F55" t="n">
-        <v>102.990799</v>
+        <v>102.990807</v>
       </c>
       <c r="G55" t="n">
         <v>18934900</v>
@@ -1839,7 +1839,7 @@
         <v>106.400002</v>
       </c>
       <c r="F56" t="n">
-        <v>104.364029</v>
+        <v>104.364014</v>
       </c>
       <c r="G56" t="n">
         <v>26388500</v>
@@ -1864,7 +1864,7 @@
         <v>106.400002</v>
       </c>
       <c r="F57" t="n">
-        <v>104.364029</v>
+        <v>104.364014</v>
       </c>
       <c r="G57" t="n">
         <v>25475100</v>
@@ -1914,7 +1914,7 @@
         <v>104.339996</v>
       </c>
       <c r="F59" t="n">
-        <v>102.343437</v>
+        <v>102.34343</v>
       </c>
       <c r="G59" t="n">
         <v>22224500</v>
@@ -1939,7 +1939,7 @@
         <v>104.529999</v>
       </c>
       <c r="F60" t="n">
-        <v>102.529793</v>
+        <v>102.5298</v>
       </c>
       <c r="G60" t="n">
         <v>17794300</v>
@@ -1964,7 +1964,7 @@
         <v>104.32</v>
       </c>
       <c r="F61" t="n">
-        <v>102.323814</v>
+        <v>102.323822</v>
       </c>
       <c r="G61" t="n">
         <v>16804400</v>
@@ -2039,7 +2039,7 @@
         <v>106.599998</v>
       </c>
       <c r="F64" t="n">
-        <v>104.825279</v>
+        <v>104.825272</v>
       </c>
       <c r="G64" t="n">
         <v>18234800</v>
@@ -2089,7 +2089,7 @@
         <v>108.25</v>
       </c>
       <c r="F66" t="n">
-        <v>106.4478</v>
+        <v>106.447815</v>
       </c>
       <c r="G66" t="n">
         <v>23047700</v>
@@ -2139,7 +2139,7 @@
         <v>106.779999</v>
       </c>
       <c r="F68" t="n">
-        <v>105.002281</v>
+        <v>105.002289</v>
       </c>
       <c r="G68" t="n">
         <v>19134400</v>
@@ -2164,7 +2164,7 @@
         <v>107</v>
       </c>
       <c r="F69" t="n">
-        <v>105.218628</v>
+        <v>105.21862</v>
       </c>
       <c r="G69" t="n">
         <v>13971200</v>
@@ -2189,7 +2189,7 @@
         <v>106.889999</v>
       </c>
       <c r="F70" t="n">
-        <v>105.110451</v>
+        <v>105.110443</v>
       </c>
       <c r="G70" t="n">
         <v>20563000</v>
@@ -2214,7 +2214,7 @@
         <v>106.050003</v>
       </c>
       <c r="F71" t="n">
-        <v>104.284439</v>
+        <v>104.284431</v>
       </c>
       <c r="G71" t="n">
         <v>22079400</v>
@@ -2264,7 +2264,7 @@
         <v>103.830002</v>
       </c>
       <c r="F73" t="n">
-        <v>102.10141</v>
+        <v>102.101395</v>
       </c>
       <c r="G73" t="n">
         <v>19528800</v>
@@ -2289,7 +2289,7 @@
         <v>104.199997</v>
       </c>
       <c r="F74" t="n">
-        <v>102.46524</v>
+        <v>102.465233</v>
       </c>
       <c r="G74" t="n">
         <v>15922600</v>
@@ -2339,7 +2339,7 @@
         <v>104.989998</v>
       </c>
       <c r="F76" t="n">
-        <v>103.242081</v>
+        <v>103.242088</v>
       </c>
       <c r="G76" t="n">
         <v>16450100</v>
@@ -2414,7 +2414,7 @@
         <v>106.959999</v>
       </c>
       <c r="F79" t="n">
-        <v>105.179291</v>
+        <v>105.179276</v>
       </c>
       <c r="G79" t="n">
         <v>21899900</v>
@@ -2439,7 +2439,7 @@
         <v>105.82</v>
       </c>
       <c r="F80" t="n">
-        <v>104.058266</v>
+        <v>104.058258</v>
       </c>
       <c r="G80" t="n">
         <v>19610400</v>
@@ -2464,7 +2464,7 @@
         <v>104.769997</v>
       </c>
       <c r="F81" t="n">
-        <v>103.025742</v>
+        <v>103.025749</v>
       </c>
       <c r="G81" t="n">
         <v>20247600</v>
@@ -2489,7 +2489,7 @@
         <v>106.459999</v>
       </c>
       <c r="F82" t="n">
-        <v>104.687607</v>
+        <v>104.687614</v>
       </c>
       <c r="G82" t="n">
         <v>26949000</v>
@@ -2564,7 +2564,7 @@
         <v>106.290001</v>
       </c>
       <c r="F85" t="n">
-        <v>104.784225</v>
+        <v>104.784233</v>
       </c>
       <c r="G85" t="n">
         <v>23656200</v>
@@ -2589,7 +2589,7 @@
         <v>105.239998</v>
       </c>
       <c r="F86" t="n">
-        <v>103.749107</v>
+        <v>103.749092</v>
       </c>
       <c r="G86" t="n">
         <v>25110500</v>
@@ -2614,7 +2614,7 @@
         <v>104.889999</v>
       </c>
       <c r="F87" t="n">
-        <v>103.404045</v>
+        <v>103.40406</v>
       </c>
       <c r="G87" t="n">
         <v>15090900</v>
@@ -2639,7 +2639,7 @@
         <v>103.419998</v>
       </c>
       <c r="F88" t="n">
-        <v>101.95488</v>
+        <v>101.954872</v>
       </c>
       <c r="G88" t="n">
         <v>20587000</v>
@@ -2664,7 +2664,7 @@
         <v>103.050003</v>
       </c>
       <c r="F89" t="n">
-        <v>101.590134</v>
+        <v>101.590126</v>
       </c>
       <c r="G89" t="n">
         <v>19182500</v>
@@ -2814,7 +2814,7 @@
         <v>102.580002</v>
       </c>
       <c r="F95" t="n">
-        <v>101.126778</v>
+        <v>101.126793</v>
       </c>
       <c r="G95" t="n">
         <v>21340900</v>
@@ -2889,7 +2889,7 @@
         <v>100.739998</v>
       </c>
       <c r="F98" t="n">
-        <v>99.312843</v>
+        <v>99.31285099999999</v>
       </c>
       <c r="G98" t="n">
         <v>20131100</v>
@@ -2989,7 +2989,7 @@
         <v>101.089996</v>
       </c>
       <c r="F102" t="n">
-        <v>99.657898</v>
+        <v>99.657883</v>
       </c>
       <c r="G102" t="n">
         <v>17030300</v>
@@ -3014,7 +3014,7 @@
         <v>102.099998</v>
       </c>
       <c r="F103" t="n">
-        <v>100.65358</v>
+        <v>100.653587</v>
       </c>
       <c r="G103" t="n">
         <v>23125200</v>
@@ -3039,7 +3039,7 @@
         <v>102.989998</v>
       </c>
       <c r="F104" t="n">
-        <v>101.530975</v>
+        <v>101.530968</v>
       </c>
       <c r="G104" t="n">
         <v>23787000</v>
@@ -3064,7 +3064,7 @@
         <v>103.120003</v>
       </c>
       <c r="F105" t="n">
-        <v>101.929329</v>
+        <v>101.929321</v>
       </c>
       <c r="G105" t="n">
         <v>21040400</v>
@@ -3114,7 +3114,7 @@
         <v>101.800003</v>
       </c>
       <c r="F107" t="n">
-        <v>100.624557</v>
+        <v>100.624565</v>
       </c>
       <c r="G107" t="n">
         <v>14433200</v>
@@ -3189,7 +3189,7 @@
         <v>102.059998</v>
       </c>
       <c r="F110" t="n">
-        <v>100.881561</v>
+        <v>100.881554</v>
       </c>
       <c r="G110" t="n">
         <v>23845100</v>
@@ -3289,7 +3289,7 @@
         <v>102.019997</v>
       </c>
       <c r="F114" t="n">
-        <v>100.842018</v>
+        <v>100.842026</v>
       </c>
       <c r="G114" t="n">
         <v>29094200</v>
@@ -3314,7 +3314,7 @@
         <v>103</v>
       </c>
       <c r="F115" t="n">
-        <v>101.810707</v>
+        <v>101.810715</v>
       </c>
       <c r="G115" t="n">
         <v>25732000</v>
@@ -3489,7 +3489,7 @@
         <v>103.169998</v>
       </c>
       <c r="F122" t="n">
-        <v>101.978745</v>
+        <v>101.978752</v>
       </c>
       <c r="G122" t="n">
         <v>18105700</v>
@@ -3614,7 +3614,7 @@
         <v>101.110001</v>
       </c>
       <c r="F127" t="n">
-        <v>100.213165</v>
+        <v>100.213173</v>
       </c>
       <c r="G127" t="n">
         <v>28170300</v>
@@ -3689,7 +3689,7 @@
         <v>99.209999</v>
       </c>
       <c r="F130" t="n">
-        <v>98.33002500000001</v>
+        <v>98.330017</v>
       </c>
       <c r="G130" t="n">
         <v>24665200</v>
@@ -3714,7 +3714,7 @@
         <v>99.720001</v>
       </c>
       <c r="F131" t="n">
-        <v>98.835503</v>
+        <v>98.83549499999999</v>
       </c>
       <c r="G131" t="n">
         <v>20491100</v>
@@ -3789,7 +3789,7 @@
         <v>101.290001</v>
       </c>
       <c r="F134" t="n">
-        <v>100.391571</v>
+        <v>100.391579</v>
       </c>
       <c r="G134" t="n">
         <v>18566200</v>
@@ -3964,7 +3964,7 @@
         <v>101.169998</v>
       </c>
       <c r="F141" t="n">
-        <v>100.272636</v>
+        <v>100.272629</v>
       </c>
       <c r="G141" t="n">
         <v>17160600</v>
@@ -4014,7 +4014,7 @@
         <v>99.300003</v>
       </c>
       <c r="F143" t="n">
-        <v>98.419235</v>
+        <v>98.419228</v>
       </c>
       <c r="G143" t="n">
         <v>44794400</v>
@@ -4039,7 +4039,7 @@
         <v>99.80999799999999</v>
       </c>
       <c r="F144" t="n">
-        <v>98.92469800000001</v>
+        <v>98.92469</v>
       </c>
       <c r="G144" t="n">
         <v>27434000</v>
@@ -4214,7 +4214,7 @@
         <v>96.69000200000001</v>
       </c>
       <c r="F151" t="n">
-        <v>96.096512</v>
+        <v>96.096504</v>
       </c>
       <c r="G151" t="n">
         <v>24010500</v>
@@ -4239,7 +4239,7 @@
         <v>97.19000200000001</v>
       </c>
       <c r="F152" t="n">
-        <v>96.593445</v>
+        <v>96.59343699999999</v>
       </c>
       <c r="G152" t="n">
         <v>20151100</v>
@@ -4264,7 +4264,7 @@
         <v>95.589996</v>
       </c>
       <c r="F153" t="n">
-        <v>95.003258</v>
+        <v>95.00324999999999</v>
       </c>
       <c r="G153" t="n">
         <v>37253200</v>
@@ -4439,7 +4439,7 @@
         <v>92.519997</v>
       </c>
       <c r="F160" t="n">
-        <v>91.952095</v>
+        <v>91.95210299999999</v>
       </c>
       <c r="G160" t="n">
         <v>29254100</v>
@@ -4489,7 +4489,7 @@
         <v>95.540001</v>
       </c>
       <c r="F162" t="n">
-        <v>94.95356</v>
+        <v>94.953568</v>
       </c>
       <c r="G162" t="n">
         <v>38294700</v>
@@ -4514,7 +4514,7 @@
         <v>94.910004</v>
       </c>
       <c r="F163" t="n">
-        <v>94.327431</v>
+        <v>94.327438</v>
       </c>
       <c r="G163" t="n">
         <v>22300800</v>
@@ -4539,7 +4539,7 @@
         <v>95.220001</v>
       </c>
       <c r="F164" t="n">
-        <v>94.63552900000001</v>
+        <v>94.635536</v>
       </c>
       <c r="G164" t="n">
         <v>23865200</v>
@@ -4564,7 +4564,7 @@
         <v>95.31999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>94.734917</v>
+        <v>94.734909</v>
       </c>
       <c r="G165" t="n">
         <v>16037300</v>
@@ -5643,6 +5643,31 @@
       </c>
       <c r="G208" t="n">
         <v>32352400</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>83.80999799999999</v>
+      </c>
+      <c r="C209" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>83.239998</v>
+      </c>
+      <c r="E209" t="n">
+        <v>83.989998</v>
+      </c>
+      <c r="F209" t="n">
+        <v>83.989998</v>
+      </c>
+      <c r="G209" t="n">
+        <v>44980200</v>
       </c>
     </row>
   </sheetData>
